--- a/FrameWork/src/test/resources/testdata/testdatavtiger.xlsx
+++ b/FrameWork/src/test/resources/testdata/testdatavtiger.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace\tp_automation\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854DBFC-2196-4176-8379-1113DBD0B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{398377D5-9C81-4B0E-9709-41384E79EEE3}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -22,9 +16,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,6 +23,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>orgnization</t>
   </si>
@@ -50,7 +43,10 @@
     <t>industry</t>
   </si>
   <si>
-    <t>1234509876</t>
+    <t>JP_Morgan_</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
   </si>
   <si>
     <t>lastname</t>
@@ -62,34 +58,31 @@
     <t>organization name</t>
   </si>
   <si>
-    <t>vasanth</t>
-  </si>
-  <si>
-    <t>volkswagen</t>
-  </si>
-  <si>
-    <t>9876543210</t>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Meta</t>
   </si>
   <si>
     <t>PRODUCT NAME</t>
   </si>
   <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>Tesla-Y_</t>
+  </si>
+  <si>
+    <t>BYD_</t>
+  </si>
+  <si>
+    <t>Tata_</t>
+  </si>
+  <si>
     <t>OPPORTUNITY NAME</t>
   </si>
   <si>
-    <t>VASANTH_</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>BMW-M4_</t>
-  </si>
-  <si>
-    <t>BMW-M3_</t>
-  </si>
-  <si>
-    <t>BMW-M2_</t>
+    <t>VR_</t>
   </si>
   <si>
     <t>SUBJECT</t>
@@ -107,66 +100,66 @@
     <t>SHIPING ADDRESS</t>
   </si>
   <si>
-    <t>imported german cars</t>
+    <t>ITEM NAME</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>imported japan cars</t>
   </si>
   <si>
     <t>Created</t>
   </si>
   <si>
+    <t>AutoCreated</t>
+  </si>
+  <si>
+    <t>123, bengaluru, India</t>
+  </si>
+  <si>
+    <t>MG Road Bengaluru</t>
+  </si>
+  <si>
+    <t>Toyato</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6500000</t>
+  </si>
+  <si>
     <t>Approved</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Delivered</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>AutoCreated</t>
-  </si>
-  <si>
     <t>Sent</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Credit Invoice</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Paid</t>
   </si>
   <si>
-    <t>123, bengaluru, India</t>
-  </si>
-  <si>
-    <t>456, nilgiris, tamilnadu</t>
-  </si>
-  <si>
-    <t>ITEM NAME</t>
-  </si>
-  <si>
-    <t>BMW_M4</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>6500000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -182,12 +175,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>german mechatronics</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
     <t>Vendor name</t>
   </si>
   <si>
@@ -197,52 +184,198 @@
     <t>phone</t>
   </si>
   <si>
-    <t>adolfhitler@gmail.com</t>
-  </si>
-  <si>
-    <t>Hitler_</t>
-  </si>
-  <si>
-    <t>8956237845</t>
+    <t>Zoho_</t>
+  </si>
+  <si>
+    <t>zohovendor@zohomail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,36 +384,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,60 +607,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -390,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,26 +1027,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -475,23 +1062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,357 +1203,363 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A548A0CF-ABA0-4841-9E73-48E38E08468A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.2222222222222" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.6" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
+      <c r="B2" s="10">
+        <v>6458908767</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F67EE0-CECC-44E1-B2E6-0B7AD0416061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.2222222222222" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.1111111111111" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4567893425</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215F9F1F-9557-469B-B0F0-A1EF6AA02456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC376B-81FB-40B2-A044-DEA5C35D2A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B472230-9534-479F-8D76-E7194297B510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="37.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="38.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9" t="s">
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="9" t="s">
+    <row r="8" spans="7:7">
+      <c r="G8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="9" t="s">
+    <row r="9" spans="7:7">
+      <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="9" t="s">
+    <row r="10" spans="7:7">
+      <c r="G10" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="9" t="s">
+    <row r="11" spans="7:7">
+      <c r="G11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F0FAE-B242-42AD-ACCE-A21227F42770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
+      <c r="C2" s="6">
+        <v>8956237845</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{843D3D8B-4627-4C5E-BD05-1139F438D05F}"/>
+    <hyperlink ref="B2" r:id="rId1" display="zohovendor@zohomail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FrameWork/src/test/resources/testdata/testdatavtiger.xlsx
+++ b/FrameWork/src/test/resources/testdata/testdatavtiger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>orgnization</t>
   </si>
@@ -46,6 +46,9 @@
     <t>JP_Morgan_</t>
   </si>
   <si>
+    <t>6458908767</t>
+  </si>
+  <si>
     <t>Manufacturing</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Mark</t>
   </si>
   <si>
+    <t>4567893425</t>
+  </si>
+  <si>
     <t>Meta</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
   </si>
   <si>
     <t>zohovendor@zohomail.com</t>
+  </si>
+  <si>
+    <t>8956237845</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +235,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -375,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,12 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,12 +560,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,12 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,119 +686,125 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,25 +813,19 @@
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,7 +867,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,7 +1196,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1237,11 +1221,11 @@
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
-        <v>6458908767</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1240,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1268,24 +1252,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10">
-        <v>4567893425</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1310,25 +1294,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1354,12 +1338,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1357,7 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1391,123 +1375,123 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>35</v>
+      <c r="G4" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="13" t="s">
-        <v>43</v>
+      <c r="G8" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="13" t="s">
-        <v>44</v>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="13" t="s">
-        <v>45</v>
+      <c r="G10" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="13" t="s">
-        <v>46</v>
+      <c r="G11" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1522,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1535,24 +1519,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6">
-        <v>8956237845</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
